--- a/pred_ohlcv/54_21/2019-10-19 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 QTUM ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2513.34354859</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2617.68994859</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2600.17864859</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2840.91554859</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2956.71094859</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4231.39334859</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4055.95634859</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3581.51104859</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2437.37074859</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5017.19396833</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-5248.973468329999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5146.27346833</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-153.6427683299981</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2722.917868329998</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 QTUM ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2617.68994859</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2600.17864859</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2840.91554859</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3581.51104859</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2437.37074859</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5017.19396833</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-5248.973468329999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5146.27346833</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-676.4340683299981</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-688.8240683299981</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-121.4246683299981</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-153.6427683299981</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2722.917868329998</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-16734.09116833</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
